--- a/data/regulators.xlsx
+++ b/data/regulators.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26529"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{277DD0F8-2FEE-474E-9952-35495CCACAB6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="60" windowWidth="11292" windowHeight="5580"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Arkusz1" sheetId="1" r:id="rId1"/>
@@ -16,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="30">
   <si>
     <t>id</t>
   </si>
@@ -76,19 +77,58 @@
   </si>
   <si>
     <t>Gene Ther. 13:641 (2006); Hum Gene Ther Methods. 23: 73 (2012)</t>
+  </si>
+  <si>
+    <t>GCGTTACATAACTTACGGTAAATGGCCCGCCTGGCTGACCGCCCAACGACCCCCGCCCATTGACGTCAATAATGACGTATGTTCCCATAGTAACGCCAATAGGGACTTTCCATTGACGTCAATGGGTGGAGTATTTACGGTAAACTGCCCACTTGGCAGTACATCAAGTGTATCATATGCCAAGTCCGCCCCCTATTGACGTCAATGACGGTAAATGGCCCGCCTGGCATTATGCCCAGTACATGACCTTACGGGACTTTCCTACTTGGCAGTACATCTACGTATTAGTCATCGCTATTACCATG</t>
+  </si>
+  <si>
+    <t>SV40-en</t>
+  </si>
+  <si>
+    <t>Simian virus 40 enhancer</t>
+  </si>
+  <si>
+    <t>Weak enhancer.</t>
+  </si>
+  <si>
+    <t>Genes Dev. 1:65 (1987)</t>
+  </si>
+  <si>
+    <t>CGATGGAGCGGAGAATGGGCGGAACTGGGCGGAGTTAGGGGCGGGATGGGCGGAGTTAGGGGCGGGACTATGGTTGCTGACTAATTGAGATGCATGCTTTGCATACTTCTGCCTGCTGGGGAGCCTGGGGACTTTCCACACCTGGTTGCTGACTAATTGAGATGCATGCTTTGCATACTTCTGCCTGCTGGGGAGCCTGGGGACTTTCCACACCCTAACTGACACACATTCCACAGC</t>
+  </si>
+  <si>
+    <t>Mammalian ubiquitous enhancer</t>
+  </si>
+  <si>
+    <t>CMV-en</t>
+  </si>
+  <si>
+    <t>Human cytomegalovirus immediate early enhancer</t>
+  </si>
+  <si>
+    <t>Strong enhancer.</t>
+  </si>
+  <si>
+    <t>Cell. 41:521 (1985)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="238"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -114,23 +154,29 @@
   </cellStyleXfs>
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normalny" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Motyw pakietu Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Pakiet Office">
+    <a:clrScheme name="Pakiet Office 2007–2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -168,7 +214,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Pakiet Office">
+    <a:fontScheme name="Pakiet Office 2007–2010">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -202,6 +248,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -236,9 +283,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Pakiet Office">
+    <a:fmtScheme name="Pakiet Office 2007–2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -411,91 +459,153 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:J5"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="10.77734375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="10.33203125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="55.21875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="68.88671875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="12.5546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="46.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="55.44140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="17.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
-      <c r="A1" t="s">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
+      <c r="H1" s="2"/>
+      <c r="I1" s="2"/>
+      <c r="J1" s="2"/>
     </row>
-    <row r="2" spans="1:7" ht="43.2">
-      <c r="A2">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A2" s="1">
         <v>1</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D2" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="E2" t="s">
+      <c r="E2" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="F2" t="s">
+      <c r="F2" s="1" t="s">
         <v>11</v>
       </c>
       <c r="G2" s="1" t="s">
         <v>12</v>
       </c>
+      <c r="H2" s="2"/>
+      <c r="I2" s="2"/>
+      <c r="J2" s="2"/>
     </row>
-    <row r="3" spans="1:7" ht="57.6">
-      <c r="A3">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A3" s="1">
         <v>2</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="1" t="s">
         <v>13</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="D3" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="E3" s="1" t="s">
         <v>16</v>
       </c>
       <c r="F3" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="G3" t="s">
+      <c r="G3" s="1" t="s">
         <v>17</v>
       </c>
+      <c r="H3" s="2"/>
+      <c r="I3" s="2"/>
+      <c r="J3" s="2"/>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A4" s="1">
+        <v>3</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="H4" s="2"/>
+      <c r="I4" s="2"/>
+      <c r="J4" s="2"/>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A5" s="1">
+        <v>4</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="H5" s="2"/>
+      <c r="I5" s="2"/>
+      <c r="J5" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -504,12 +614,12 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0"/>
@@ -517,12 +627,12 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0"/>
